--- a/Assets/Game/InGame/Enemy/Drop Item/Table/Test/Test.xlsx
+++ b/Assets/Game/InGame/Enemy/Drop Item/Table/Test/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Confront\Assets\Game\OutGame\Drop Item\Table\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Confront\Assets\Game\InGame\Enemy\Drop Item\Table\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7453FF-338F-477F-9C24-706C8C3EDF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1AB73C-6437-4F42-8190-35017A3AB9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6768F6-3855-4B69-B9E9-C63DBCD0CFBD}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B89E602-0181-41AA-85C4-8E631A4C287F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
